--- a/GF_X-master/AAAGameData/DataTables/TestssssTable.xlsx
+++ b/GF_X-master/AAAGameData/DataTables/TestssssTable.xlsx
@@ -56,7 +56,7 @@
     <t>多语言</t>
   </si>
   <si>
-    <t>你好</t>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
